--- a/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16220" tabRatio="851" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="851" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Superdettagli" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{356DB1C8-B726-46E4-A37C-5DCDC3B56533}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356DB1C8-B726-46E4-A37C-5DCDC3B56533}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,8 +1089,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8696660" y="766971"/>
-          <a:ext cx="1149280" cy="688165"/>
+          <a:off x="8296334" y="800101"/>
+          <a:ext cx="1154801" cy="713013"/>
           <a:chOff x="1230086" y="4294415"/>
           <a:chExt cx="1151488" cy="713013"/>
         </a:xfrm>
@@ -1100,7 +1100,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD69F98F-C2DE-5B3D-AD9B-1385703EAAA4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD69F98F-C2DE-5B3D-AD9B-1385703EAAA4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1148,7 +1148,7 @@
           <xdr:cNvPr id="4" name="TextBox 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8757078-1A93-B150-D490-CB5780B9E446}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8757078-1A93-B150-D490-CB5780B9E446}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1196,7 +1196,7 @@
           <xdr:cNvPr id="5" name="TextBox 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17B2414E-36D9-F9DA-F440-862ABDE6A5AB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B2414E-36D9-F9DA-F440-862ABDE6A5AB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="6" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3FA2292-5CF5-4E38-A2EA-A37A8220D345}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FA2292-5CF5-4E38-A2EA-A37A8220D345}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1318,7 @@
         <xdr:cNvPr id="7" name="Group 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A662FB5B-1B8C-482D-BB22-DD7634AD884E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A662FB5B-1B8C-482D-BB22-DD7634AD884E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,8 +1326,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8718436" y="1865717"/>
-          <a:ext cx="1124464" cy="712540"/>
+          <a:off x="8318110" y="1948543"/>
+          <a:ext cx="1129985" cy="745671"/>
           <a:chOff x="1230090" y="5464629"/>
           <a:chExt cx="1126672" cy="745671"/>
         </a:xfrm>
@@ -1337,7 +1337,7 @@
           <xdr:cNvPr id="8" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{743BEFAD-47AE-F721-807C-ADED1AA08EF3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743BEFAD-47AE-F721-807C-ADED1AA08EF3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1385,7 +1385,7 @@
           <xdr:cNvPr id="9" name="Straight Connector 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D0CA46-A1A1-244F-C51D-72BDB41B6C93}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D0CA46-A1A1-244F-C51D-72BDB41B6C93}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
           <xdr:cNvPr id="10" name="TextBox 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C43F6D6B-ABEB-6881-ABD1-806AACA964EC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43F6D6B-ABEB-6881-ABD1-806AACA964EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
           <xdr:cNvPr id="11" name="TextBox 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B98B25C0-EF27-4688-FA6A-E00624852F57}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98B25C0-EF27-4688-FA6A-E00624852F57}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2014,66 +2014,66 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="8" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="12.7265625" customWidth="1"/>
-    <col min="25" max="25" width="23.26953125" customWidth="1"/>
-    <col min="26" max="27" width="18.7265625" customWidth="1"/>
-    <col min="28" max="28" width="20.453125" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" customWidth="1"/>
+    <col min="26" max="27" width="18.7109375" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" customWidth="1"/>
     <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="30" width="17.1796875" customWidth="1"/>
-    <col min="32" max="32" width="20.1796875" customWidth="1"/>
-    <col min="33" max="33" width="21.7265625" customWidth="1"/>
-    <col min="34" max="34" width="19.81640625" customWidth="1"/>
+    <col min="30" max="30" width="17.140625" customWidth="1"/>
+    <col min="32" max="32" width="20.140625" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" customWidth="1"/>
+    <col min="34" max="34" width="19.85546875" customWidth="1"/>
     <col min="35" max="35" width="20" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" customWidth="1"/>
-    <col min="38" max="38" width="19.7265625" customWidth="1"/>
-    <col min="39" max="39" width="16.81640625" customWidth="1"/>
-    <col min="40" max="40" width="12.81640625" customWidth="1"/>
-    <col min="41" max="41" width="13.453125" customWidth="1"/>
-    <col min="42" max="42" width="22.453125" customWidth="1"/>
-    <col min="43" max="43" width="11.7265625" customWidth="1"/>
-    <col min="44" max="44" width="10.453125" customWidth="1"/>
-    <col min="45" max="45" width="11.7265625" customWidth="1"/>
-    <col min="46" max="46" width="10.1796875" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="19.7109375" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" customWidth="1"/>
+    <col min="40" max="40" width="12.85546875" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" customWidth="1"/>
+    <col min="42" max="42" width="22.42578125" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.42578125" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" customWidth="1"/>
     <col min="47" max="47" width="11" customWidth="1"/>
-    <col min="48" max="48" width="20.54296875" customWidth="1"/>
-    <col min="49" max="49" width="12.81640625" customWidth="1"/>
-    <col min="50" max="50" width="14.81640625" customWidth="1"/>
-    <col min="51" max="51" width="12.1796875" customWidth="1"/>
-    <col min="52" max="52" width="15.453125" customWidth="1"/>
-    <col min="53" max="53" width="14.26953125" customWidth="1"/>
+    <col min="48" max="48" width="20.5703125" customWidth="1"/>
+    <col min="49" max="49" width="12.85546875" customWidth="1"/>
+    <col min="50" max="50" width="14.85546875" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" customWidth="1"/>
+    <col min="52" max="52" width="15.42578125" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" customWidth="1"/>
     <col min="54" max="54" width="19" customWidth="1"/>
-    <col min="55" max="55" width="11.54296875" customWidth="1"/>
-    <col min="69" max="69" width="11.26953125" customWidth="1"/>
-    <col min="70" max="70" width="17.81640625" customWidth="1"/>
-    <col min="72" max="72" width="12.7265625" customWidth="1"/>
-    <col min="73" max="73" width="15.81640625" customWidth="1"/>
-    <col min="74" max="74" width="11.81640625" customWidth="1"/>
-    <col min="75" max="75" width="18.26953125" customWidth="1"/>
-    <col min="76" max="76" width="20.1796875" customWidth="1"/>
-    <col min="77" max="77" width="45.7265625" customWidth="1"/>
-    <col min="78" max="78" width="16.54296875" customWidth="1"/>
-    <col min="79" max="79" width="25.7265625" customWidth="1"/>
-    <col min="80" max="80" width="27.1796875" customWidth="1"/>
+    <col min="55" max="55" width="11.5703125" customWidth="1"/>
+    <col min="69" max="69" width="11.28515625" customWidth="1"/>
+    <col min="70" max="70" width="17.85546875" customWidth="1"/>
+    <col min="72" max="72" width="12.7109375" customWidth="1"/>
+    <col min="73" max="73" width="15.85546875" customWidth="1"/>
+    <col min="74" max="74" width="11.85546875" customWidth="1"/>
+    <col min="75" max="75" width="18.28515625" customWidth="1"/>
+    <col min="76" max="76" width="20.140625" customWidth="1"/>
+    <col min="77" max="77" width="45.7109375" customWidth="1"/>
+    <col min="78" max="78" width="16.5703125" customWidth="1"/>
+    <col min="79" max="79" width="25.7109375" customWidth="1"/>
+    <col min="80" max="80" width="27.140625" customWidth="1"/>
     <col min="81" max="81" width="17" customWidth="1"/>
-    <col min="82" max="82" width="19.1796875" customWidth="1"/>
-    <col min="83" max="83" width="15.26953125" customWidth="1"/>
-    <col min="84" max="85" width="10.81640625" customWidth="1"/>
-    <col min="86" max="86" width="10.26953125" customWidth="1"/>
-    <col min="87" max="87" width="15.1796875" customWidth="1"/>
-    <col min="90" max="90" width="21.54296875" customWidth="1"/>
+    <col min="82" max="82" width="19.140625" customWidth="1"/>
+    <col min="83" max="83" width="15.28515625" customWidth="1"/>
+    <col min="84" max="85" width="10.85546875" customWidth="1"/>
+    <col min="86" max="86" width="10.28515625" customWidth="1"/>
+    <col min="87" max="87" width="15.140625" customWidth="1"/>
+    <col min="90" max="90" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -2798,13 +2798,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -2846,7 +2846,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -2864,7 +2864,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -2880,7 +2880,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -2896,7 +2896,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -2912,7 +2912,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -2928,7 +2928,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -2944,7 +2944,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -2960,7 +2960,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2976,7 +2976,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -2992,7 +2992,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3008,7 +3008,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3024,7 +3024,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3040,7 +3040,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -3056,7 +3056,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -3072,7 +3072,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -3088,7 +3088,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -3104,7 +3104,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -3120,7 +3120,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -3136,7 +3136,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -3152,7 +3152,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -3168,7 +3168,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -3184,7 +3184,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -3200,7 +3200,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -3216,7 +3216,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -3232,7 +3232,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -3248,7 +3248,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3264,7 +3264,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -3280,7 +3280,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -3312,13 +3312,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -3378,7 +3378,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3394,7 +3394,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -3410,7 +3410,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3426,7 +3426,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3442,7 +3442,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -3458,7 +3458,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3474,7 +3474,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -3490,7 +3490,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -3506,7 +3506,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3522,7 +3522,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3538,7 +3538,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3554,7 +3554,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -3570,7 +3570,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -3586,7 +3586,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -3602,7 +3602,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -3618,7 +3618,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -3634,7 +3634,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -3650,7 +3650,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -3666,7 +3666,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -3682,7 +3682,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -3698,7 +3698,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -3714,7 +3714,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -3730,7 +3730,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -3746,7 +3746,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -3762,7 +3762,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3778,7 +3778,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -3794,7 +3794,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -3826,13 +3826,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -3892,7 +3892,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3908,7 +3908,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -3924,7 +3924,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3940,7 +3940,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3956,7 +3956,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -3972,7 +3972,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3988,7 +3988,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4004,7 +4004,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -4020,7 +4020,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -4036,7 +4036,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -4052,7 +4052,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -4068,7 +4068,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -4084,7 +4084,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -4100,7 +4100,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -4116,7 +4116,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -4132,7 +4132,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -4148,7 +4148,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -4164,7 +4164,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -4180,7 +4180,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4196,7 +4196,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -4212,7 +4212,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -4228,7 +4228,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -4244,7 +4244,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -4260,7 +4260,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -4276,7 +4276,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -4292,7 +4292,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -4308,7 +4308,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -4340,13 +4340,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -4406,7 +4406,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4422,7 +4422,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -4438,7 +4438,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -4454,7 +4454,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -4470,7 +4470,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -4486,7 +4486,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -4502,7 +4502,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4518,7 +4518,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -4534,7 +4534,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -4550,7 +4550,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -4566,7 +4566,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -4582,7 +4582,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -4598,7 +4598,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -4614,7 +4614,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -4630,7 +4630,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -4646,7 +4646,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -4662,7 +4662,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -4678,7 +4678,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -4694,7 +4694,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4710,7 +4710,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -4726,7 +4726,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -4742,7 +4742,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -4758,7 +4758,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -4774,7 +4774,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -4790,7 +4790,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -4806,7 +4806,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -4822,7 +4822,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -4854,13 +4854,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -4902,7 +4902,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -4920,7 +4920,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4936,7 +4936,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -4952,7 +4952,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -4968,7 +4968,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -4984,7 +4984,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -5000,7 +5000,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -5016,7 +5016,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5032,7 +5032,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -5048,7 +5048,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -5064,7 +5064,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -5080,7 +5080,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5096,7 +5096,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -5112,7 +5112,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -5128,7 +5128,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -5144,7 +5144,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -5160,7 +5160,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -5176,7 +5176,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -5192,7 +5192,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -5208,7 +5208,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -5224,7 +5224,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -5240,7 +5240,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -5256,7 +5256,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -5272,7 +5272,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -5288,7 +5288,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -5304,7 +5304,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -5320,7 +5320,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -5336,7 +5336,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -5368,13 +5368,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -5416,7 +5416,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -5434,7 +5434,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5450,7 +5450,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -5466,7 +5466,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -5482,7 +5482,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -5498,7 +5498,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -5514,7 +5514,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -5530,7 +5530,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5546,7 +5546,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -5562,7 +5562,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -5578,7 +5578,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -5594,7 +5594,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5610,7 +5610,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -5626,7 +5626,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -5642,7 +5642,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -5658,7 +5658,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -5674,7 +5674,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -5690,7 +5690,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -5706,7 +5706,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -5722,7 +5722,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -5738,7 +5738,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -5754,7 +5754,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -5770,7 +5770,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -5786,7 +5786,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -5802,7 +5802,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -5818,7 +5818,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -5834,7 +5834,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -5850,7 +5850,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -5882,13 +5882,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -5948,7 +5948,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5964,7 +5964,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -5980,7 +5980,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -5996,7 +5996,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6012,7 +6012,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -6028,7 +6028,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6044,7 +6044,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6060,7 +6060,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6076,7 +6076,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6092,7 +6092,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6108,7 +6108,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6124,7 +6124,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6140,7 +6140,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6156,7 +6156,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -6172,7 +6172,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6188,7 +6188,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6204,7 +6204,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6220,7 +6220,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6236,7 +6236,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6252,7 +6252,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6268,7 +6268,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6284,7 +6284,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6300,7 +6300,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -6316,7 +6316,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -6332,7 +6332,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6348,7 +6348,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -6364,7 +6364,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -6396,13 +6396,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -6462,7 +6462,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6478,7 +6478,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -6494,7 +6494,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6510,7 +6510,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6526,7 +6526,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -6542,7 +6542,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6558,7 +6558,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6574,7 +6574,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6590,7 +6590,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6606,7 +6606,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6622,7 +6622,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6638,7 +6638,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6654,7 +6654,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6670,7 +6670,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -6686,7 +6686,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6702,7 +6702,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6718,7 +6718,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6734,7 +6734,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6750,7 +6750,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6766,7 +6766,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6782,7 +6782,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6798,7 +6798,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6814,7 +6814,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -6830,7 +6830,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -6846,7 +6846,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6862,7 +6862,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -6878,7 +6878,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -6911,33 +6911,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="17.81640625" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" customWidth="1"/>
-    <col min="15" max="15" width="11.1796875" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="19" max="19" width="26.7265625" customWidth="1"/>
-    <col min="20" max="20" width="15.81640625" customWidth="1"/>
-    <col min="21" max="21" width="16.7265625" customWidth="1"/>
-    <col min="22" max="22" width="17.54296875" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="31" max="31" width="16.54296875" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -7185,28 +7185,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="7" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="10" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" customWidth="1"/>
-    <col min="23" max="23" width="16.7265625" customWidth="1"/>
-    <col min="24" max="24" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>2025</v>
       </c>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -7306,9 +7306,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -7399,24 +7399,24 @@
   </sheetPr>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="3"/>
-    <col min="10" max="10" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.26953125" customWidth="1"/>
-    <col min="13" max="26" width="9.1796875" style="3"/>
+    <col min="12" max="12" width="39.28515625" customWidth="1"/>
+    <col min="13" max="26" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>210</v>
       </c>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -7444,7 +7444,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -7697,7 +7697,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>195</v>
       </c>
@@ -7714,7 +7714,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -7731,7 +7731,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -7765,7 +7765,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -7789,7 +7789,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -7804,7 +7804,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>209</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>209</v>
       </c>
@@ -7840,21 +7840,21 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="H24" s="3"/>
@@ -7862,422 +7862,422 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="K93" s="3"/>
@@ -8309,17 +8309,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -8340,7 +8340,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -8363,7 +8363,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -8382,7 +8382,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -8399,7 +8399,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -8416,7 +8416,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -8433,7 +8433,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -8450,7 +8450,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -8467,7 +8467,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -8484,7 +8484,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8501,7 +8501,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -8518,7 +8518,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -8535,7 +8535,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -8552,7 +8552,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8569,7 +8569,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -8586,7 +8586,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -8603,7 +8603,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -8620,7 +8620,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -8637,7 +8637,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -8654,7 +8654,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -8671,7 +8671,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -8688,7 +8688,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -8705,7 +8705,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -8722,7 +8722,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -8739,7 +8739,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -8756,7 +8756,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -8773,7 +8773,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -8790,7 +8790,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -8807,7 +8807,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -8824,7 +8824,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -8841,7 +8841,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -8874,13 +8874,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -8940,7 +8940,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -8956,7 +8956,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -8972,7 +8972,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -8988,7 +8988,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -9004,7 +9004,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -9020,7 +9020,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -9036,7 +9036,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9052,7 +9052,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -9068,7 +9068,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -9084,7 +9084,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -9100,7 +9100,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -9116,7 +9116,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -9132,7 +9132,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -9148,7 +9148,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -9164,7 +9164,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -9180,7 +9180,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -9196,7 +9196,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -9212,7 +9212,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -9228,7 +9228,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -9244,7 +9244,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -9260,7 +9260,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -9276,7 +9276,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -9292,7 +9292,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -9308,7 +9308,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -9324,7 +9324,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -9340,7 +9340,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -9356,7 +9356,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -9388,13 +9388,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -9454,7 +9454,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -9470,7 +9470,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -9486,7 +9486,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -9502,7 +9502,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -9518,7 +9518,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -9534,7 +9534,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -9550,7 +9550,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9566,7 +9566,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -9582,7 +9582,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -9598,7 +9598,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -9614,7 +9614,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -9630,7 +9630,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -9646,7 +9646,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -9662,7 +9662,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -9678,7 +9678,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -9694,7 +9694,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -9710,7 +9710,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -9726,7 +9726,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -9742,7 +9742,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -9758,7 +9758,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -9774,7 +9774,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -9790,7 +9790,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -9806,7 +9806,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -9822,7 +9822,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -9838,7 +9838,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -9854,7 +9854,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -9870,7 +9870,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -9902,13 +9902,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>220</v>
       </c>
@@ -9928,7 +9928,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
@@ -9968,7 +9968,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -9984,7 +9984,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -10000,7 +10000,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -10016,7 +10016,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -10032,7 +10032,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -10048,7 +10048,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -10064,7 +10064,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -10080,7 +10080,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -10096,7 +10096,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -10112,7 +10112,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -10128,7 +10128,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10144,7 +10144,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -10160,7 +10160,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -10176,7 +10176,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -10192,7 +10192,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -10208,7 +10208,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -10224,7 +10224,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -10240,7 +10240,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -10256,7 +10256,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -10272,7 +10272,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -10288,7 +10288,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -10304,7 +10304,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -10320,7 +10320,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -10336,7 +10336,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -10352,7 +10352,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -10368,7 +10368,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -10384,7 +10384,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>

--- a/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="851" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="851" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Superdettagli" sheetId="1" r:id="rId1"/>
@@ -7400,7 +7400,7 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8309,8 +8309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9385,7 +9385,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9898,8 +9898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
@@ -17,7 +17,7 @@
     <sheet name="RunRate" sheetId="5" r:id="rId3"/>
     <sheet name="Superdettagli" sheetId="1" r:id="rId4"/>
     <sheet name="Alias-Business TMP" sheetId="30" r:id="rId5"/>
-    <sheet name="Alias-Categoria " sheetId="31" r:id="rId6"/>
+    <sheet name="Alias-Categoria" sheetId="31" r:id="rId6"/>
     <sheet name="table_tabProjType" sheetId="8" r:id="rId7"/>
     <sheet name="table_tabProjTypeCluster" sheetId="9" r:id="rId8"/>
     <sheet name="table_CommonTable" sheetId="10" r:id="rId9"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="269">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -898,6 +898,9 @@
   <si>
     <t>Alias for the column
 Business TMP</t>
+  </si>
+  <si>
+    <t>Add instructions here</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1196,6 +1199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,7 +1992,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2217,6 +2226,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -4759,8 +4769,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="412380504"/>
-        <c:axId val="412377760"/>
+        <c:axId val="392493448"/>
+        <c:axId val="392493840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5060,11 +5070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412380504"/>
-        <c:axId val="412377760"/>
+        <c:axId val="392493448"/>
+        <c:axId val="392493840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412380504"/>
+        <c:axId val="392493448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5107,7 +5117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412377760"/>
+        <c:crossAx val="392493840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5115,7 +5125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412377760"/>
+        <c:axId val="392493840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5167,7 +5177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412380504"/>
+        <c:crossAx val="392493448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5786,7 +5796,7 @@
         <xdr:cNvPr id="28" name="Group 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF94E72-2189-C812-DFB0-EBA7303C26E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF94E72-2189-C812-DFB0-EBA7303C26E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5805,7 +5815,7 @@
           <xdr:cNvPr id="2" name="Rectangle 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{779F3758-FC90-FB6E-BDC0-425401461C6E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779F3758-FC90-FB6E-BDC0-425401461C6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5853,7 +5863,7 @@
           <xdr:cNvPr id="24" name="TextBox 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC341FA-E3C4-9953-A60A-C981007A1A73}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC341FA-E3C4-9953-A60A-C981007A1A73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5901,7 +5911,7 @@
           <xdr:cNvPr id="25" name="TextBox 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2460A70B-F49C-4E04-8DEA-27528896E193}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2460A70B-F49C-4E04-8DEA-27528896E193}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5965,7 +5975,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0625142-E4C3-F93B-2C3B-AAF9BD9CF716}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0625142-E4C3-F93B-2C3B-AAF9BD9CF716}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6023,7 +6033,7 @@
         <xdr:cNvPr id="29" name="Group 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F9AF7C-0A4B-6822-9A27-7404CF0E5234}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F9AF7C-0A4B-6822-9A27-7404CF0E5234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6042,7 +6052,7 @@
           <xdr:cNvPr id="16" name="Rectangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F527A74-90BA-458A-B1F8-44B126386B8D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F527A74-90BA-458A-B1F8-44B126386B8D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6090,7 +6100,7 @@
           <xdr:cNvPr id="17" name="Straight Connector 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{847FA15F-E5D8-45E4-AC10-C4738F881B14}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847FA15F-E5D8-45E4-AC10-C4738F881B14}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6133,7 +6143,7 @@
           <xdr:cNvPr id="26" name="TextBox 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33F87CCC-A74E-4C5D-92A0-3B846F62BD21}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F87CCC-A74E-4C5D-92A0-3B846F62BD21}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6181,7 +6191,7 @@
           <xdr:cNvPr id="27" name="TextBox 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD5BC8B3-946C-45E9-A60C-689F4FF5C554}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5BC8B3-946C-45E9-A60C-689F4FF5C554}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6245,7 +6255,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Microsoft, Powerpoint, macOS, BigSur Icon">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B7A9E05-B8F7-4BC2-BFE2-F54370A914CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7A9E05-B8F7-4BC2-BFE2-F54370A914CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6311,7 +6321,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C804A60B-3C35-EF36-6989-D524872A57EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C804A60B-3C35-EF36-6989-D524872A57EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22419,32 +22429,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="122" t="s">
         <v>267</v>
       </c>
       <c r="B1" s="123"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="111" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="135" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>254</v>
       </c>
@@ -22452,7 +22466,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>256</v>
       </c>
@@ -22460,51 +22474,51 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104"/>
       <c r="B5" s="105"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="105"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="104"/>
       <c r="B7" s="105"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="104"/>
       <c r="B8" s="105"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="104"/>
       <c r="B11" s="105"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="104"/>
       <c r="B13" s="105"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="104"/>
       <c r="B14" s="105"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="104"/>
       <c r="B15" s="105"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
       <c r="B16" s="105"/>
     </row>
@@ -22539,32 +22553,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="122" t="s">
         <v>264</v>
       </c>
       <c r="B1" s="123"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="111" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="135" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
         <v>258</v>
       </c>
@@ -22572,7 +22590,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>260</v>
       </c>
@@ -22580,7 +22598,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
         <v>262</v>
       </c>
@@ -22588,47 +22606,47 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="105"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="104"/>
       <c r="B7" s="105"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="104"/>
       <c r="B8" s="105"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="104"/>
       <c r="B11" s="105"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="104"/>
       <c r="B13" s="105"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="104"/>
       <c r="B14" s="105"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="104"/>
       <c r="B15" s="105"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
       <c r="B16" s="105"/>
     </row>

--- a/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="774" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="774" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="275">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -820,12 +820,6 @@
     <t>Progetti U (produttive indirette)</t>
   </si>
   <si>
-    <t>Progetti per business</t>
-  </si>
-  <si>
-    <t>Progetti per projectType</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -897,9 +891,6 @@
     <t>Presentazione casi test.pptx</t>
   </si>
   <si>
-    <t>C1:P39</t>
-  </si>
-  <si>
     <t>D1:P30</t>
   </si>
   <si>
@@ -910,6 +901,24 @@
   </si>
   <si>
     <t>PP_17</t>
+  </si>
+  <si>
+    <t>Una slide</t>
+  </si>
+  <si>
+    <t>2 slides verticali</t>
+  </si>
+  <si>
+    <t>2 slides orizzontali</t>
+  </si>
+  <si>
+    <t>3 slides verticali</t>
+  </si>
+  <si>
+    <t>3 slides orizzontali</t>
+  </si>
+  <si>
+    <t>D1:P39</t>
   </si>
 </sst>
 </file>
@@ -4830,8 +4839,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="388716904"/>
-        <c:axId val="388718472"/>
+        <c:axId val="166125680"/>
+        <c:axId val="388007984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5131,11 +5140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="388716904"/>
-        <c:axId val="388718472"/>
+        <c:axId val="166125680"/>
+        <c:axId val="388007984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="388716904"/>
+        <c:axId val="166125680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5178,7 +5187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388718472"/>
+        <c:crossAx val="388007984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5186,7 +5195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388718472"/>
+        <c:axId val="388007984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5238,7 +5247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388716904"/>
+        <c:crossAx val="166125680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5926,8 +5935,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9162143" y="965201"/>
-          <a:ext cx="1151488" cy="751113"/>
+          <a:off x="8768443" y="962026"/>
+          <a:ext cx="1151488" cy="741588"/>
           <a:chOff x="1230086" y="4294415"/>
           <a:chExt cx="1151488" cy="713013"/>
         </a:xfrm>
@@ -6163,8 +6172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9183919" y="2189843"/>
-          <a:ext cx="1126672" cy="796471"/>
+          <a:off x="8790219" y="2167618"/>
+          <a:ext cx="1126672" cy="783771"/>
           <a:chOff x="1230090" y="5464629"/>
           <a:chExt cx="1126672" cy="745671"/>
         </a:xfrm>
@@ -7257,55 +7266,55 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" s="132"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="85"/>
       <c r="B5" s="86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="85" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7389,43 +7398,43 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="132"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,7 +7548,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="60"/>
@@ -8033,7 +8042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8068,7 +8077,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="60"/>
@@ -9188,7 +9197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -9259,7 +9268,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" s="93" t="str">
         <f>D1</f>
@@ -10926,7 +10935,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -12593,7 +12602,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -14260,7 +14269,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -15927,7 +15936,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -17594,7 +17603,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -19590,7 +19599,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -21257,7 +21266,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -22924,7 +22933,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -24591,7 +24600,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -26258,7 +26267,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -27925,7 +27934,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -29592,7 +29601,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -31203,7 +31212,7 @@
       </c>
       <c r="B1" s="139"/>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -31259,7 +31268,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -32870,7 +32879,7 @@
       </c>
       <c r="B1" s="139"/>
       <c r="D1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -32926,7 +32935,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -34537,7 +34546,7 @@
       </c>
       <c r="B1" s="139"/>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -34593,7 +34602,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -37497,282 +37506,282 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -38209,2882 +38218,2882 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B101" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B118" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B120" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B121" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B131" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B133" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B136" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B141" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B142" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B143" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B144" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B145" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B146" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B147" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B148" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B151" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B152" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B154" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B155" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B156" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B157" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B158" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B160" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B161" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B162" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B163" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B164" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B165" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B166" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B167" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B168" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B169" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B170" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B173" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B174" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B175" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B176" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B177" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B179" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B181" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B182" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B183" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B184" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B186" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B187" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B188" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B189" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B190" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B191" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B192" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B193" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B194" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B195" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B196" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B197" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B198" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B200" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B201" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B202" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B203" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B204" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B205" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B206" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B207" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B208" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B209" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B210" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B211" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B213" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B214" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B215" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B216" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B217" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B218" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B219" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B220" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B221" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B222" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B223" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B224" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B225" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B226" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B227" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B228" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B230" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B231" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B232" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B233" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B235" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B237" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B238" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B239" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B249" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B250" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B251" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B253" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B255" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B256" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B257" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B258" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B259" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B260" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B261" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B262" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B263" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B264" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B265" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B266" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B267" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B268" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B269" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B271" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B272" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B273" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B274" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B275" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B276" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B277" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B278" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B279" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B280" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B281" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B282" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B283" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B284" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B285" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B286" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B287" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B288" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B289" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B290" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B291" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B292" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B293" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B294" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B295" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B296" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B297" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B298" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B299" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B300" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B301" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B302" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B303" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B304" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B305" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B306" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B307" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B308" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B309" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B310" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B311" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B312" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B313" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B314" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B315" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B316" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B317" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B318" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B319" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B320" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B321" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B322" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B323" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B324" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B325" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B326" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B327" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B328" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B329" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B330" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B331" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B332" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B333" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B334" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B335" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B336" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B337" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B338" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B339" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B340" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B341" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B342" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B343" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B344" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B345" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B346" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B347" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B348" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B349" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B350" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B351" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B352" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B353" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B354" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B355" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B356" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B357" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B358" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B359" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B360" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B361" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B362" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B363" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -41103,7 +41112,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41154,7 +41163,7 @@
         <v>206</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="69" t="s">
         <v>207</v>
@@ -41498,10 +41507,10 @@
     </row>
     <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="C18" s="94" t="s">
         <v>185</v>
@@ -41519,16 +41528,16 @@
     </row>
     <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="95" t="s">
@@ -41544,16 +41553,16 @@
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="95" t="s">
@@ -41569,19 +41578,19 @@
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F21" s="95" t="s">
         <v>211</v>
@@ -41594,21 +41603,21 @@
       <c r="L21" s="66"/>
       <c r="M21" s="66"/>
     </row>
-    <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F22" s="95" t="s">
         <v>199</v>
@@ -41622,18 +41631,12 @@
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>266</v>
-      </c>
-      <c r="B23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="95"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
@@ -41642,19 +41645,11 @@
       <c r="L23" s="66"/>
       <c r="M23" s="66"/>
     </row>
-    <row r="24" spans="1:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
+    <row r="24" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="69"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
@@ -41664,12 +41659,10 @@
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="66"/>
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>

--- a/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\SourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2845AFD4-28FB-4D57-880D-90C84AD60916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337F2DF1-4879-4562-A65D-323C7C0EA9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="268">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -860,15 +860,6 @@
   <si>
     <t>Alias for the column
 Business TMP</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>fdas</t>
-  </si>
-  <si>
-    <t>da</t>
   </si>
   <si>
     <t>Add instructions here to explain the usage of *</t>
@@ -7010,7 +7001,7 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -7182,7 +7173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -7206,7 +7197,7 @@
         <v>253</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7227,23 +7218,15 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
-      <c r="B5" s="81" t="s">
-        <v>255</v>
-      </c>
+      <c r="B5" s="81"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
-        <v>255</v>
-      </c>
+      <c r="A6" s="80"/>
       <c r="B6" s="81"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>257</v>
-      </c>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
@@ -7338,7 +7321,7 @@
         <v>253</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7648,7 +7631,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C2" s="90"/>
     </row>
@@ -8504,7 +8487,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>D1</f>
@@ -10163,7 +10146,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" s="110" t="str">
         <f>D1</f>
@@ -11822,7 +11805,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="111" t="str">
         <f>D1</f>
@@ -13481,7 +13464,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" s="112" t="str">
         <f>D1</f>
@@ -15140,7 +15123,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2" s="113" t="str">
         <f>D1</f>
@@ -16799,7 +16782,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="110" t="str">
         <f>D1</f>
@@ -18701,7 +18684,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -20360,7 +20343,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -22019,7 +22002,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -23678,7 +23661,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -25337,7 +25320,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -26996,7 +26979,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -28655,7 +28638,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -30258,7 +30241,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -30314,7 +30297,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -31917,7 +31900,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -31973,7 +31956,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -33576,7 +33559,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -33632,7 +33615,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -40319,10 +40302,10 @@
     </row>
     <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>182</v>
@@ -40340,7 +40323,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B19" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40366,7 +40349,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B20" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40392,7 +40375,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B21" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40418,7 +40401,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B22" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40444,7 +40427,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B23" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40470,7 +40453,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B24" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40496,7 +40479,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B25" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40522,7 +40505,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B26" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40548,7 +40531,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B27" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40574,7 +40557,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B28" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40600,7 +40583,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B29" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40628,7 +40611,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B30" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40656,7 +40639,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B31" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40684,7 +40667,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B32" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40712,10 +40695,10 @@
     </row>
     <row r="33" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C33" s="89" t="s">
         <v>182</v>
@@ -40733,7 +40716,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B34" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40759,7 +40742,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40785,7 +40768,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B36" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40813,7 +40796,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B37" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>

--- a/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/SourceFiles/DataSource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337F2DF1-4879-4562-A65D-323C7C0EA9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8642563-6BFA-4270-8EC8-E5FEE34F516A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" tabRatio="774" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="278">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -818,36 +818,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>R&amp;D*</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>pippo,pippo2,pippo3</t>
-  </si>
-  <si>
-    <t>pippo</t>
-  </si>
-  <si>
-    <t>abcd, abdc, bdca</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>ef*</t>
-  </si>
-  <si>
-    <t>EF</t>
-  </si>
-  <si>
-    <t>lmn,lnm,mln,mnl,nlm,nml</t>
-  </si>
-  <si>
-    <t>LMN</t>
-  </si>
-  <si>
     <t>Alias for the column
 Categoria</t>
   </si>
@@ -899,6 +869,66 @@
   </si>
   <si>
     <t>Presentazione casi test 2.pptx</t>
+  </si>
+  <si>
+    <t>abcd*</t>
+  </si>
+  <si>
+    <t>Match caso 1</t>
+  </si>
+  <si>
+    <t>ef*gh</t>
+  </si>
+  <si>
+    <t>Match caso 2</t>
+  </si>
+  <si>
+    <t>*ilmn</t>
+  </si>
+  <si>
+    <t>Match caso 3</t>
+  </si>
+  <si>
+    <t>Match caso 4</t>
+  </si>
+  <si>
+    <t>Match caso A</t>
+  </si>
+  <si>
+    <t>Match caso B</t>
+  </si>
+  <si>
+    <t>Match caso C</t>
+  </si>
+  <si>
+    <t>Match caso D</t>
+  </si>
+  <si>
+    <t>aaaa*</t>
+  </si>
+  <si>
+    <t>bb*bb</t>
+  </si>
+  <si>
+    <t>*cccc</t>
+  </si>
+  <si>
+    <t>Caso 4</t>
+  </si>
+  <si>
+    <t>Caso D</t>
+  </si>
+  <si>
+    <t>Pluto A, PlutoA, Pluto B, pluto C</t>
+  </si>
+  <si>
+    <t>Caso Pluto</t>
+  </si>
+  <si>
+    <t>Pippo 1, Pippo 2, Pippo 3</t>
+  </si>
+  <si>
+    <t>Caso Pippo</t>
   </si>
 </sst>
 </file>
@@ -7002,7 +7032,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="L2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7171,96 +7201,104 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B1" s="128"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
       <c r="B8" s="81"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
       <c r="B9" s="81"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="81"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="81"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="80"/>
       <c r="B13" s="81"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="81"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
     </row>
@@ -7285,6 +7323,11 @@
       <c r="B21" s="83"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -7295,100 +7338,104 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B1" s="128"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
       <c r="B8" s="81"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
       <c r="B9" s="81"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="81"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="81"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="80"/>
       <c r="B13" s="81"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="81"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
     </row>
@@ -7413,6 +7460,11 @@
       <c r="B21" s="83"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -7631,7 +7683,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C2" s="90"/>
     </row>
@@ -8487,7 +8539,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>D1</f>
@@ -10146,7 +10198,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D2" s="110" t="str">
         <f>D1</f>
@@ -11805,7 +11857,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" s="111" t="str">
         <f>D1</f>
@@ -13464,7 +13516,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D2" s="112" t="str">
         <f>D1</f>
@@ -15123,7 +15175,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D2" s="113" t="str">
         <f>D1</f>
@@ -16782,7 +16834,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" s="110" t="str">
         <f>D1</f>
@@ -18684,7 +18736,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -20343,7 +20395,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -22002,7 +22054,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -23661,7 +23713,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -25320,7 +25372,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -26979,7 +27031,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -28638,7 +28690,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -30241,7 +30293,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -30297,7 +30349,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -31900,7 +31952,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -31956,7 +32008,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -33559,7 +33611,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -33615,7 +33667,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -40302,10 +40354,10 @@
     </row>
     <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>182</v>
@@ -40323,7 +40375,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B19" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40349,7 +40401,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B20" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40375,7 +40427,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B21" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40401,7 +40453,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B22" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40427,7 +40479,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B23" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40453,7 +40505,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B24" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40479,7 +40531,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B25" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40505,7 +40557,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B26" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40531,7 +40583,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B27" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40557,7 +40609,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B28" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40583,7 +40635,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B29" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40611,7 +40663,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B30" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40639,7 +40691,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B31" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40667,7 +40719,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B32" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40695,10 +40747,10 @@
     </row>
     <row r="33" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C33" s="89" t="s">
         <v>182</v>
@@ -40716,7 +40768,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B34" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40742,7 +40794,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B35" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40768,7 +40820,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B36" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40796,7 +40848,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B37" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
